--- a/Fogantyuk_arfelvitel.xlsx
+++ b/Fogantyuk_arfelvitel.xlsx
@@ -963,9 +963,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,12 +1282,10 @@
         <v>1</v>
       </c>
       <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
         <f>ROUND(AI6*1.9/0.96/0.915,4)</f>
         <v>1.4323999999999999</v>
       </c>
+      <c r="K6" s="5"/>
       <c r="L6" s="5">
         <v>0</v>
       </c>
@@ -1395,12 +1393,10 @@
         <v>1</v>
       </c>
       <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <f t="shared" ref="K7:K43" si="0">ROUND(AI7*1.9/0.96/0.915,4)</f>
+        <f t="shared" ref="J7:J43" si="0">ROUND(AI7*1.9/0.96/0.915,4)</f>
         <v>1.5485</v>
       </c>
+      <c r="K7" s="5"/>
       <c r="L7" s="5">
         <v>0</v>
       </c>
@@ -1408,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="5">
-        <f t="shared" ref="N7:N43" si="1">ROUND(O7/1.15*1.1*7.8*2*1.03,2)</f>
+        <f t="shared" ref="N7:N42" si="1">ROUND(O7/1.15*1.1*7.8*2*1.03,2)</f>
         <v>12.65</v>
       </c>
       <c r="O7" s="5">
@@ -1422,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="R7" s="5">
-        <f t="shared" ref="R7:R43" si="3">ROUND(S7*123*2.15,2)</f>
+        <f t="shared" ref="R7:R42" si="3">ROUND(S7*123*2.15,2)</f>
         <v>208.25</v>
       </c>
       <c r="S7" s="5">
@@ -1475,7 +1471,7 @@
         <v>2</v>
       </c>
       <c r="AI7" s="19">
-        <f t="shared" ref="AI7:AI43" si="5">ROUND(V7*(1+AA7/100)*(1+AB7/100)/1.15,4)</f>
+        <f t="shared" ref="AI7:AI42" si="5">ROUND(V7*(1+AA7/100)*(1+AB7/100)/1.15,4)</f>
         <v>0.71589999999999998</v>
       </c>
     </row>
@@ -1508,12 +1504,10 @@
         <v>1</v>
       </c>
       <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5">
         <f t="shared" si="0"/>
         <v>1.6647000000000001</v>
       </c>
+      <c r="K8" s="5"/>
       <c r="L8" s="5">
         <v>0</v>
       </c>
@@ -1621,12 +1615,10 @@
         <v>1</v>
       </c>
       <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
         <f t="shared" si="0"/>
         <v>1.7979000000000001</v>
       </c>
+      <c r="K9" s="5"/>
       <c r="L9" s="5">
         <v>0</v>
       </c>
@@ -1734,12 +1726,10 @@
         <v>1</v>
       </c>
       <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
         <f t="shared" si="0"/>
         <v>1.8593</v>
       </c>
+      <c r="K10" s="5"/>
       <c r="L10" s="5">
         <v>0</v>
       </c>
@@ -1847,12 +1837,10 @@
         <v>1</v>
       </c>
       <c r="J11" s="5">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5">
         <f t="shared" si="0"/>
         <v>1.9733000000000001</v>
       </c>
+      <c r="K11" s="5"/>
       <c r="L11" s="5">
         <v>0</v>
       </c>
@@ -1960,12 +1948,10 @@
         <v>1</v>
       </c>
       <c r="J12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5">
         <f t="shared" si="0"/>
         <v>2.2199</v>
       </c>
+      <c r="K12" s="5"/>
       <c r="L12" s="5">
         <v>0</v>
       </c>
@@ -2073,12 +2059,10 @@
         <v>1</v>
       </c>
       <c r="J13" s="5">
-        <v>0</v>
-      </c>
-      <c r="K13" s="5">
         <f t="shared" si="0"/>
         <v>1.4306000000000001</v>
       </c>
+      <c r="K13" s="5"/>
       <c r="L13" s="5">
         <v>0</v>
       </c>
@@ -2186,12 +2170,10 @@
         <v>1</v>
       </c>
       <c r="J14" s="5">
-        <v>0</v>
-      </c>
-      <c r="K14" s="5">
         <f t="shared" si="0"/>
         <v>1.3365</v>
       </c>
+      <c r="K14" s="5"/>
       <c r="L14" s="5">
         <v>0</v>
       </c>
@@ -2299,12 +2281,10 @@
         <v>1</v>
       </c>
       <c r="J15" s="5">
-        <v>0</v>
-      </c>
-      <c r="K15" s="5">
         <f t="shared" si="0"/>
         <v>1.0729</v>
       </c>
+      <c r="K15" s="5"/>
       <c r="L15" s="5">
         <v>0</v>
       </c>
@@ -2412,12 +2392,10 @@
         <v>1</v>
       </c>
       <c r="J16" s="5">
-        <v>0</v>
-      </c>
-      <c r="K16" s="5">
         <f t="shared" si="0"/>
         <v>1.2613000000000001</v>
       </c>
+      <c r="K16" s="5"/>
       <c r="L16" s="5">
         <v>0</v>
       </c>
@@ -2525,12 +2503,10 @@
         <v>1</v>
       </c>
       <c r="J17" s="5">
-        <v>0</v>
-      </c>
-      <c r="K17" s="5">
         <f t="shared" si="0"/>
         <v>1.4873000000000001</v>
       </c>
+      <c r="K17" s="5"/>
       <c r="L17" s="5">
         <v>0</v>
       </c>
@@ -2638,12 +2614,10 @@
         <v>1</v>
       </c>
       <c r="J18" s="5">
-        <v>0</v>
-      </c>
-      <c r="K18" s="5">
         <f t="shared" si="0"/>
         <v>1.3354999999999999</v>
       </c>
+      <c r="K18" s="5"/>
       <c r="L18" s="5">
         <v>0</v>
       </c>
@@ -2751,12 +2725,10 @@
         <v>1</v>
       </c>
       <c r="J19" s="5">
-        <v>0</v>
-      </c>
-      <c r="K19" s="5">
         <f t="shared" si="0"/>
         <v>1.3354999999999999</v>
       </c>
+      <c r="K19" s="5"/>
       <c r="L19" s="5">
         <v>0</v>
       </c>
@@ -2864,12 +2836,10 @@
         <v>1</v>
       </c>
       <c r="J20" s="5">
-        <v>0</v>
-      </c>
-      <c r="K20" s="5">
         <f t="shared" si="0"/>
         <v>1.2988999999999999</v>
       </c>
+      <c r="K20" s="5"/>
       <c r="L20" s="5">
         <v>0</v>
       </c>
@@ -2977,12 +2947,10 @@
         <v>1</v>
       </c>
       <c r="J21" s="5">
-        <v>0</v>
-      </c>
-      <c r="K21" s="5">
         <f t="shared" si="0"/>
         <v>2.0707</v>
       </c>
+      <c r="K21" s="5"/>
       <c r="L21" s="5">
         <v>0</v>
       </c>
@@ -3090,12 +3058,10 @@
         <v>1</v>
       </c>
       <c r="J22" s="5">
-        <v>0</v>
-      </c>
-      <c r="K22" s="5">
         <f t="shared" si="0"/>
         <v>2.0234999999999999</v>
       </c>
+      <c r="K22" s="5"/>
       <c r="L22" s="5">
         <v>0</v>
       </c>
@@ -3203,12 +3169,10 @@
         <v>1</v>
       </c>
       <c r="J23" s="5">
-        <v>0</v>
-      </c>
-      <c r="K23" s="5">
         <f t="shared" si="0"/>
         <v>2.0234999999999999</v>
       </c>
+      <c r="K23" s="5"/>
       <c r="L23" s="5">
         <v>0</v>
       </c>
@@ -3316,12 +3280,10 @@
         <v>1</v>
       </c>
       <c r="J24" s="5">
-        <v>0</v>
-      </c>
-      <c r="K24" s="5">
         <f t="shared" si="0"/>
         <v>3.8401999999999998</v>
       </c>
+      <c r="K24" s="5"/>
       <c r="L24" s="5">
         <v>0</v>
       </c>
@@ -3429,12 +3391,10 @@
         <v>1</v>
       </c>
       <c r="J25" s="5">
-        <v>0</v>
-      </c>
-      <c r="K25" s="5">
         <f t="shared" si="0"/>
         <v>3.7637</v>
       </c>
+      <c r="K25" s="5"/>
       <c r="L25" s="5">
         <v>0</v>
       </c>
@@ -3542,12 +3502,10 @@
         <v>1</v>
       </c>
       <c r="J26" s="5">
-        <v>0</v>
-      </c>
-      <c r="K26" s="5">
         <f t="shared" si="0"/>
         <v>3.7637</v>
       </c>
+      <c r="K26" s="5"/>
       <c r="L26" s="5">
         <v>0</v>
       </c>
@@ -3655,12 +3613,10 @@
         <v>1</v>
       </c>
       <c r="J27" s="5">
-        <v>0</v>
-      </c>
-      <c r="K27" s="5">
         <f t="shared" si="0"/>
         <v>1.3177000000000001</v>
       </c>
+      <c r="K27" s="5"/>
       <c r="L27" s="5">
         <v>0</v>
       </c>
@@ -3768,12 +3724,10 @@
         <v>1</v>
       </c>
       <c r="J28" s="5">
-        <v>0</v>
-      </c>
-      <c r="K28" s="5">
         <f t="shared" si="0"/>
         <v>1.4873000000000001</v>
       </c>
+      <c r="K28" s="5"/>
       <c r="L28" s="5">
         <v>0</v>
       </c>
@@ -3881,12 +3835,10 @@
         <v>1</v>
       </c>
       <c r="J29" s="5">
-        <v>0</v>
-      </c>
-      <c r="K29" s="5">
         <f t="shared" si="0"/>
         <v>1.3758999999999999</v>
       </c>
+      <c r="K29" s="5"/>
       <c r="L29" s="5">
         <v>0</v>
       </c>
@@ -3994,12 +3946,10 @@
         <v>1</v>
       </c>
       <c r="J30" s="5">
-        <v>0</v>
-      </c>
-      <c r="K30" s="5">
         <f t="shared" si="0"/>
         <v>1.3758999999999999</v>
       </c>
+      <c r="K30" s="5"/>
       <c r="L30" s="5">
         <v>0</v>
       </c>
@@ -4107,12 +4057,10 @@
         <v>1</v>
       </c>
       <c r="J31" s="5">
-        <v>0</v>
-      </c>
-      <c r="K31" s="5">
         <f t="shared" si="0"/>
         <v>1.7317</v>
       </c>
+      <c r="K31" s="5"/>
       <c r="L31" s="5">
         <v>0</v>
       </c>
@@ -4220,12 +4168,10 @@
         <v>1</v>
       </c>
       <c r="J32" s="5">
-        <v>0</v>
-      </c>
-      <c r="K32" s="5">
         <f t="shared" si="0"/>
         <v>1.5985</v>
       </c>
+      <c r="K32" s="5"/>
       <c r="L32" s="5">
         <v>0</v>
       </c>
@@ -4333,12 +4279,10 @@
         <v>1</v>
       </c>
       <c r="J33" s="5">
-        <v>0</v>
-      </c>
-      <c r="K33" s="5">
         <f t="shared" si="0"/>
         <v>1.5985</v>
       </c>
+      <c r="K33" s="5"/>
       <c r="L33" s="5">
         <v>0</v>
       </c>
@@ -4446,12 +4390,10 @@
         <v>1</v>
       </c>
       <c r="J34" s="5">
-        <v>0</v>
-      </c>
-      <c r="K34" s="5">
         <f t="shared" si="0"/>
         <v>1.7243999999999999</v>
       </c>
+      <c r="K34" s="5"/>
       <c r="L34" s="5">
         <v>0</v>
       </c>
@@ -4559,12 +4501,10 @@
         <v>1</v>
       </c>
       <c r="J35" s="5">
-        <v>0</v>
-      </c>
-      <c r="K35" s="5">
         <f t="shared" si="0"/>
         <v>1.9578</v>
       </c>
+      <c r="K35" s="5"/>
       <c r="L35" s="5">
         <v>0</v>
       </c>
@@ -4672,12 +4612,10 @@
         <v>1</v>
       </c>
       <c r="J36" s="5">
-        <v>0</v>
-      </c>
-      <c r="K36" s="5">
         <f t="shared" si="0"/>
         <v>1.5624</v>
       </c>
+      <c r="K36" s="5"/>
       <c r="L36" s="5">
         <v>0</v>
       </c>
@@ -4785,12 +4723,10 @@
         <v>1</v>
       </c>
       <c r="J37" s="5">
-        <v>0</v>
-      </c>
-      <c r="K37" s="5">
         <f t="shared" si="0"/>
         <v>1.5059</v>
       </c>
+      <c r="K37" s="5"/>
       <c r="L37" s="5">
         <v>0</v>
       </c>
@@ -4898,12 +4834,10 @@
         <v>1</v>
       </c>
       <c r="J38" s="5">
-        <v>0</v>
-      </c>
-      <c r="K38" s="5">
         <f t="shared" si="0"/>
         <v>1.1483000000000001</v>
       </c>
+      <c r="K38" s="5"/>
       <c r="L38" s="5">
         <v>0</v>
       </c>
@@ -5011,12 +4945,10 @@
         <v>1</v>
       </c>
       <c r="J39" s="5">
-        <v>0</v>
-      </c>
-      <c r="K39" s="5">
         <f t="shared" si="0"/>
         <v>1.5258</v>
       </c>
+      <c r="K39" s="5"/>
       <c r="L39" s="5">
         <v>0</v>
       </c>
@@ -5124,12 +5056,10 @@
         <v>1</v>
       </c>
       <c r="J40" s="5">
-        <v>0</v>
-      </c>
-      <c r="K40" s="5">
         <f t="shared" si="0"/>
         <v>1.6465000000000001</v>
       </c>
+      <c r="K40" s="5"/>
       <c r="L40" s="5">
         <v>0</v>
       </c>
@@ -5237,12 +5167,10 @@
         <v>1</v>
       </c>
       <c r="J41" s="5">
-        <v>0</v>
-      </c>
-      <c r="K41" s="5">
         <f t="shared" si="0"/>
         <v>1.6465000000000001</v>
       </c>
+      <c r="K41" s="5"/>
       <c r="L41" s="5">
         <v>0</v>
       </c>
@@ -5349,13 +5277,11 @@
       <c r="I42" s="7">
         <v>1</v>
       </c>
-      <c r="J42" s="8">
-        <v>0</v>
-      </c>
-      <c r="K42" s="5">
+      <c r="J42" s="5">
         <f t="shared" si="0"/>
         <v>1.7669999999999999</v>
       </c>
+      <c r="K42" s="5"/>
       <c r="L42" s="8">
         <v>0</v>
       </c>
@@ -5462,13 +5388,11 @@
       <c r="I43" s="21">
         <v>0</v>
       </c>
-      <c r="J43" s="22">
-        <v>0</v>
-      </c>
-      <c r="K43" s="5">
+      <c r="J43" s="5">
         <f>ROUND(AI43*1.75/0.96/0.915,4)</f>
         <v>4.8428000000000004</v>
       </c>
+      <c r="K43" s="5"/>
       <c r="L43" s="22">
         <v>0</v>
       </c>
